--- a/StructureDefinition-ext-R5-Composition.section.xlsx
+++ b/StructureDefinition-ext-R5-Composition.section.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Composition.section.xlsx
+++ b/StructureDefinition-ext-R5-Composition.section.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Composition.section` 0..* `BackboneElement`
 *  R4: `Composition.section` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Composition.section` is mapped to FHIR R4 element `Composition.section`.</t>
+Element `Composition.section` has is mapped to FHIR R4 element `Composition.section`, but has no comparisons.
+Note available implied context: `Composition.section.section` because `Composition.section.section` is defined as a content reference to `Composition.section`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Composition.section</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
   </si>
   <si>
-    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized. Element `Composition.section.title` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.title` is mapped to FHIR R4 element `Composition.section.title`.</t>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized. Element `Composition.section.title` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.title` has is mapped to FHIR R4 element `Composition.section.title`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -429,8 +430,8 @@
 If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
   </si>
   <si>
-    <t>Provides computable standardized labels to topics within the document. Element `Composition.section.code` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.code` is mapped to FHIR R4 element `Composition.section.code`.</t>
+    <t>Provides computable standardized labels to topics within the document. Element `Composition.section.code` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.code` has is mapped to FHIR R4 element `Composition.section.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -473,8 +474,8 @@
     <t>Identifies who is responsible for the information in this section, not necessarily who typed it in.</t>
   </si>
   <si>
-    <t>Identifies who is responsible for the content. Element `Composition.section.author` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.author` is mapped to FHIR R4 element `Composition.section.author`.</t>
+    <t>Identifies who is responsible for the content. Element `Composition.section.author` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.author` has is mapped to FHIR R4 element `Composition.section.author`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:author.id</t>
@@ -511,8 +512,8 @@
     <t>Typically, sections in a doument are about the subject of the document, whether that is a  patient, or group of patients, location, or device, or whatever. For some kind of documents, some sections actually contain data about related entities. Typical examples are  a section in a newborn discharge summary concerning the mother, or family history documents, with a section about each family member, though there are many other examples.</t>
   </si>
   <si>
-    <t>Element `Composition.section.focus` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.focus` is mapped to FHIR R4 element `Composition.section.focus`.</t>
+    <t>Element `Composition.section.focus` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.focus` has is mapped to FHIR R4 element `Composition.section.focus`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:focus.id</t>
@@ -549,8 +550,8 @@
     <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Element `Composition.section.text` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.text` is mapped to FHIR R4 element `Composition.section.text`.</t>
+    <t>Element `Composition.section.text` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.text` has is mapped to FHIR R4 element `Composition.section.text`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.id</t>
@@ -622,7 +623,7 @@
     <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
   </si>
   <si>
-    <t>Element `Narrative.status` is mapped to FHIR R4 element `Narrative.status`.</t>
+    <t>Element `Narrative.status` has is mapped to FHIR R4 element `Narrative.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.extension:status.id</t>
@@ -665,7 +666,7 @@
     <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
   </si>
   <si>
-    <t>Element `Narrative.div` is mapped to FHIR R4 element `Narrative.div`.</t>
+    <t>Element `Narrative.div` has is mapped to FHIR R4 element `Narrative.div`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.extension:div.id</t>
@@ -708,8 +709,8 @@
     <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
   </si>
   <si>
-    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries. Element `Composition.section.orderedBy` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.orderedBy` is mapped to FHIR R4 element `Composition.section.orderedBy`.</t>
+    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries. Element `Composition.section.orderedBy` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.orderedBy` has is mapped to FHIR R4 element `Composition.section.orderedBy`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:orderedBy.id</t>
@@ -751,8 +752,8 @@
     <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
   </si>
   <si>
-    <t>Element `Composition.section.entry` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.entry` is mapped to FHIR R4 element `Composition.section.entry`.</t>
+    <t>Element `Composition.section.entry` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.entry` has is mapped to FHIR R4 element `Composition.section.entry`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:entry.id</t>
@@ -785,8 +786,8 @@
     <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
   </si>
   <si>
-    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists. Element `Composition.section.emptyReason` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.emptyReason` is mapped to FHIR R4 element `Composition.section.emptyReason`.</t>
+    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists. Element `Composition.section.emptyReason` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.emptyReason` has is mapped to FHIR R4 element `Composition.section.emptyReason`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:emptyReason.id</t>
@@ -825,8 +826,8 @@
     <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
   </si>
   <si>
-    <t>Element `Composition.section.section` is part of an existing definition because parent element `Composition.section` requires a component extension (e.g., if this element is used as a content reference).
-Element `Composition.section.section` is mapped to FHIR R4 element `Composition.section.section`.</t>
+    <t>Element `Composition.section.section` is part of an existing definition because parent element `Composition.section` requires a cross-version extension.
+Element `Composition.section.section` has is mapped to FHIR R4 element `Composition.section.section`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:section.id</t>
@@ -1178,7 +1179,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="233.90234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Composition.section.xlsx
+++ b/StructureDefinition-ext-R5-Composition.section.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,15 +453,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of a section of a composition/document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-doc-section-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:author</t>
   </si>
   <si>
@@ -493,7 +484,7 @@
     <t>Extension.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -531,7 +522,7 @@
     <t>Extension.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -642,15 +633,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of a resource narrative.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-narrative-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:text.extension:div</t>
   </si>
   <si>
@@ -728,15 +710,6 @@
     <t>Extension.extension:orderedBy.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>What order applies to the items in the entry.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-order-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:entry</t>
   </si>
   <si>
@@ -803,12 +776,6 @@
   </si>
   <si>
     <t>Extension.extension:emptyReason.value[x]</t>
-  </si>
-  <si>
-    <t>If a section is empty, why it is empty.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-list-empty-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:section</t>
@@ -1189,8 +1156,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.96875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2637,13 +2604,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2681,13 +2648,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2712,14 +2679,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2788,7 +2755,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2891,7 +2858,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2996,7 +2963,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3039,7 +3006,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3101,7 +3068,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3127,13 +3094,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3204,13 +3171,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3235,16 +3202,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3313,7 +3280,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3416,7 +3383,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3521,7 +3488,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3564,7 +3531,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3626,7 +3593,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3652,16 +3619,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3731,13 +3698,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3762,16 +3729,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3840,7 +3807,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3943,7 +3910,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4046,13 +4013,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4077,10 +4044,10 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4151,10 +4118,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4254,10 +4221,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4359,10 +4326,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4402,7 +4369,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4464,10 +4431,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4493,13 +4460,13 @@
         <v>87</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4507,7 +4474,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>77</v>
@@ -4569,13 +4536,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4600,14 +4567,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4676,10 +4643,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4779,10 +4746,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4884,10 +4851,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4927,7 +4894,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4989,10 +4956,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5015,13 +4982,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5048,13 +5015,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5092,13 +5059,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5123,16 +5090,16 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5201,10 +5168,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5304,10 +5271,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5409,10 +5376,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5452,7 +5419,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5514,10 +5481,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5543,13 +5510,13 @@
         <v>115</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5619,7 +5586,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5662,7 +5629,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5724,7 +5691,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5750,13 +5717,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5827,13 +5794,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5858,16 +5825,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5936,7 +5903,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6039,7 +6006,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6144,7 +6111,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6187,7 +6154,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6249,7 +6216,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6278,13 +6245,13 @@
         <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6310,13 +6277,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -6354,13 +6321,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6385,16 +6352,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6463,7 +6430,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6566,7 +6533,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6671,7 +6638,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6714,7 +6681,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6743,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6802,16 +6769,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6881,13 +6848,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6912,16 +6879,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6990,7 +6957,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7093,7 +7060,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7198,7 +7165,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7241,7 +7208,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7303,7 +7270,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7332,13 +7299,13 @@
         <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7364,13 +7331,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7408,13 +7375,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7439,16 +7406,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7517,7 +7484,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7620,7 +7587,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7725,7 +7692,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7830,7 +7797,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7856,13 +7823,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8064,13 +8031,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
